--- a/URL_QUERIES_Discovery Day_Customer Experience Reimagined_ (Nov 2023 refresh).xlsx
+++ b/URL_QUERIES_Discovery Day_Customer Experience Reimagined_ (Nov 2023 refresh).xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>aisdgiasdgsadg</t>
+          <t>leave as is</t>
         </is>
       </c>
     </row>

--- a/URL_QUERIES_Discovery Day_Customer Experience Reimagined_ (Nov 2023 refresh).xlsx
+++ b/URL_QUERIES_Discovery Day_Customer Experience Reimagined_ (Nov 2023 refresh).xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>leave as is</t>
+          <t>aisdgiasdgsadg</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>access fodbidden</t>
+          <t>access forbidden</t>
         </is>
       </c>
     </row>
